--- a/temp.xlsx
+++ b/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Padre_org</t>
   </si>
@@ -28,90 +28,93 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Ministerio Público</t>
+  </si>
+  <si>
+    <t>Partidos Políticos</t>
+  </si>
+  <si>
+    <t>Poder Judicial</t>
+  </si>
+  <si>
+    <t>Presidencia de la República</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Hidráulica (INH)</t>
+  </si>
+  <si>
+    <t>Instituto Derechos Humanos</t>
+  </si>
+  <si>
+    <t>Secretaría General de la Presidencia</t>
+  </si>
+  <si>
+    <t>Superintendencia de Servicios Sanitarios</t>
+  </si>
+  <si>
+    <t>Defensoría de los Derechos de la Niñez</t>
+  </si>
+  <si>
+    <t>Convención Constitucional</t>
+  </si>
+  <si>
     <t>Servicio Electoral</t>
   </si>
   <si>
-    <t>Instituto Nacional de Hidráulica (INH)</t>
-  </si>
-  <si>
-    <t>Superintendencia de Servicios Sanitarios</t>
-  </si>
-  <si>
-    <t>Defensoría de los Derechos de la Niñez</t>
-  </si>
-  <si>
-    <t>Presidencia de la República</t>
-  </si>
-  <si>
-    <t>Convención Constitucional</t>
-  </si>
-  <si>
-    <t>Instituto Derechos Humanos</t>
-  </si>
-  <si>
     <t>Consejo para la Transparencia</t>
   </si>
   <si>
+    <t>Tribunal Constitucional</t>
+  </si>
+  <si>
+    <t>Bienes Nacionales</t>
+  </si>
+  <si>
     <t>Contraloría de la República</t>
   </si>
   <si>
+    <t>Consejo Defensa del Estado</t>
+  </si>
+  <si>
     <t>Consejo Fiscal Autónomo</t>
   </si>
   <si>
-    <t>Consejo Defensa del Estado</t>
-  </si>
-  <si>
-    <t>Ministerio Público</t>
-  </si>
-  <si>
     <t>Ciencia Tecnología e Innovación</t>
   </si>
   <si>
-    <t>Poder Judicial</t>
-  </si>
-  <si>
-    <t>Bienes Nacionales</t>
-  </si>
-  <si>
-    <t>Tribunal Constitucional</t>
-  </si>
-  <si>
     <t>Consejo de Cultura y Artes</t>
   </si>
   <si>
-    <t>Secretaría General de la Presidencia</t>
+    <t>Deporte</t>
+  </si>
+  <si>
+    <t>Secretaría General de Gobierno</t>
   </si>
   <si>
     <t>La Mujer y Equidad de Género</t>
   </si>
   <si>
-    <t>Deporte</t>
-  </si>
-  <si>
-    <t>Secretaría General de Gobierno</t>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Congreso Nacional</t>
+  </si>
+  <si>
+    <t>Transportes y Telecomunicaciones</t>
   </si>
   <si>
     <t>Medio Ambiente</t>
   </si>
   <si>
-    <t>Minería</t>
-  </si>
-  <si>
     <t>Culturas y las Artes</t>
   </si>
   <si>
-    <t>Transportes y Telecomunicaciones</t>
-  </si>
-  <si>
-    <t>Congreso Nacional</t>
+    <t>Empresas y Sociedades</t>
   </si>
   <si>
     <t>Energía</t>
   </si>
   <si>
-    <t>Empresas y Sociedades</t>
-  </si>
-  <si>
     <t>Municipios de Arica y  Parinacota</t>
   </si>
   <si>
@@ -121,12 +124,12 @@
     <t>Relaciones Exteriores</t>
   </si>
   <si>
+    <t>Desarrollo Social</t>
+  </si>
+  <si>
     <t>Centro de Formación Técnica</t>
   </si>
   <si>
-    <t>Desarrollo Social</t>
-  </si>
-  <si>
     <t>Municipios de Antofagasta</t>
   </si>
   <si>
@@ -151,67 +154,67 @@
     <t>Justicia</t>
   </si>
   <si>
+    <t>Obras Públicas</t>
+  </si>
+  <si>
+    <t>Municipios de Los Ríos</t>
+  </si>
+  <si>
+    <t>Defensa Nacional</t>
+  </si>
+  <si>
     <t>Hacienda</t>
   </si>
   <si>
-    <t>Municipios de Los Ríos</t>
-  </si>
-  <si>
-    <t>Obras Públicas</t>
-  </si>
-  <si>
-    <t>Defensa Nacional</t>
+    <t>Municipios de Coquimbo</t>
   </si>
   <si>
     <t>Economía Fomento y Turismo</t>
   </si>
   <si>
-    <t>Municipios de Coquimbo</t>
-  </si>
-  <si>
     <t>Universidades</t>
   </si>
   <si>
+    <t>Municipios de Ñuble</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Municipios de Los Lagos</t>
+  </si>
+  <si>
+    <t>Municipios del Maule</t>
+  </si>
+  <si>
+    <t>Municipios de La Araucanía</t>
+  </si>
+  <si>
+    <t>Municipios del Bíobio</t>
+  </si>
+  <si>
+    <t>Municipios del Libertador General Bernardo OHiggins</t>
+  </si>
+  <si>
     <t>Vivienda y Urbanismo</t>
   </si>
   <si>
-    <t>Municipios de Ñuble</t>
-  </si>
-  <si>
-    <t>Educación</t>
-  </si>
-  <si>
-    <t>Municipios del Maule</t>
-  </si>
-  <si>
-    <t>Municipios de Los Lagos</t>
-  </si>
-  <si>
-    <t>Municipios de La Araucanía</t>
-  </si>
-  <si>
-    <t>Municipios del Libertador General Bernardo OHiggins</t>
-  </si>
-  <si>
-    <t>Municipios del Bíobio</t>
-  </si>
-  <si>
     <t>Municipios de Valparaíso</t>
   </si>
   <si>
     <t>Municipios de R. Metropolitana de Santiago</t>
   </si>
   <si>
+    <t>Asociación Municipal</t>
+  </si>
+  <si>
+    <t>Interior y Seguridad Pública</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
     <t>Corporaciones Municipales</t>
-  </si>
-  <si>
-    <t>Asociación Municipal</t>
-  </si>
-  <si>
-    <t>Interior y Seguridad Pública</t>
-  </si>
-  <si>
-    <t>Salud</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +594,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -608,16 +611,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -625,7 +628,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -642,7 +645,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -659,7 +662,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -676,7 +679,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -710,7 +713,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -727,16 +730,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -744,16 +747,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -761,16 +764,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -778,16 +781,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -812,7 +815,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -829,16 +832,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -846,7 +849,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -863,7 +866,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -880,7 +883,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -897,19 +900,19 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -931,7 +934,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -948,19 +951,19 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -982,16 +985,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -999,7 +1002,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1016,16 +1019,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1033,19 +1036,19 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1067,7 +1070,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -1084,33 +1087,33 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -1118,19 +1121,19 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1152,16 +1155,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -1186,16 +1189,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -1203,16 +1206,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -1220,16 +1223,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -1237,16 +1240,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -1254,33 +1257,33 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -1288,24 +1291,24 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -1356,19 +1359,19 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1390,19 +1393,19 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1413,10 +1416,10 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>18</v>
@@ -1447,27 +1450,27 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>30</v>
@@ -1475,16 +1478,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>30</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -1543,53 +1546,53 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
       <c r="C60">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1600,10 +1603,10 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E61">
         <v>65</v>
@@ -1617,18 +1620,18 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62">
         <v>17</v>
       </c>
       <c r="E62">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1641,6 +1644,23 @@
       </c>
       <c r="E63">
         <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <v>232</v>
+      </c>
+      <c r="E64">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1657,10 +1657,10 @@
         <v>45</v>
       </c>
       <c r="D64">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="E64">
-        <v>277</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
